--- a/requirements/Requirements Excel/Requirement Model Loader.xlsx
+++ b/requirements/Requirements Excel/Requirement Model Loader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repositories\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7327FE6-E1B2-4DC3-B050-E6CFC5599EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFCBE5-012B-4CCB-9BB9-486330AA7718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Python class ModelLoader</t>
   </si>
   <si>
-    <t>Tnesorflow lite needs to be installed</t>
-  </si>
-  <si>
     <t>LOAD</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>R4</t>
+  </si>
+  <si>
+    <t>Tensorflow lite needs to be installed</t>
   </si>
 </sst>
 </file>
@@ -627,29 +627,29 @@
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="41.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -699,23 +699,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
@@ -737,7 +737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -745,13 +745,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -759,13 +759,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -773,13 +773,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -787,13 +787,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -815,13 +815,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -829,13 +829,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -843,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="12">
         <v>9</v>
       </c>
@@ -857,13 +857,13 @@
         <v>13</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="12">
         <v>10</v>
       </c>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>

--- a/requirements/Requirements Excel/Requirement Model Loader.xlsx
+++ b/requirements/Requirements Excel/Requirement Model Loader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repositories\Bird_Requirements\requirements\Requirements Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Git\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFCBE5-012B-4CCB-9BB9-486330AA7718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E02C0-CCD0-4CB3-8A96-62F89B816DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -132,10 +132,10 @@
     <t>Return prediction</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>Tensorflow lite needs to be installed</t>
+  </si>
+  <si>
+    <t>R7</t>
   </si>
 </sst>
 </file>
@@ -627,29 +627,29 @@
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="41.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -699,23 +699,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
@@ -737,7 +737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -821,7 +821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -835,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -849,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>9</v>
       </c>
@@ -863,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>10</v>
       </c>
